--- a/Files_Overview_study_for_New_Contributors_sw360-13.3.0-M1.xlsx
+++ b/Files_Overview_study_for_New_Contributors_sw360-13.3.0-M1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sw\sw360\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE59795-75FB-4A2D-AFB2-799A6E337604}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB905E4-DD83-4407-9E6C-58A4EA7BC663}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="-1860" windowWidth="25440" windowHeight="15540" tabRatio="853" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5772,11 +5772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:D798"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F186" sqref="F186"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5857,7 +5856,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -5871,7 +5870,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -5885,7 +5884,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -5899,7 +5898,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -5913,7 +5912,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -5927,7 +5926,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -5941,7 +5940,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -5955,7 +5954,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -5969,7 +5968,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -5983,7 +5982,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -5997,7 +5996,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -6011,7 +6010,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -6025,7 +6024,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -6039,7 +6038,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -6053,7 +6052,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -6067,7 +6066,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -6081,7 +6080,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -6095,7 +6094,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -6109,7 +6108,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -6123,7 +6122,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -6137,7 +6136,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -6151,7 +6150,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -6165,7 +6164,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -6179,7 +6178,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -6193,7 +6192,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -6207,7 +6206,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -6221,7 +6220,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -6235,7 +6234,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -6249,7 +6248,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -6263,7 +6262,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -6277,7 +6276,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -6291,7 +6290,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -6305,7 +6304,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -6319,7 +6318,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -6333,7 +6332,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -6347,7 +6346,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -6361,7 +6360,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -6375,7 +6374,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -6389,7 +6388,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -6403,7 +6402,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -6417,7 +6416,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -6431,7 +6430,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -6445,7 +6444,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -6459,7 +6458,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -6473,7 +6472,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -6487,7 +6486,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -6501,7 +6500,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -6515,7 +6514,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -6529,7 +6528,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -6543,7 +6542,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -6557,7 +6556,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -6571,7 +6570,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -6585,7 +6584,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -6599,7 +6598,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -6613,7 +6612,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -6627,7 +6626,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -6641,7 +6640,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -6655,7 +6654,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -6669,7 +6668,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -6683,7 +6682,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -6697,7 +6696,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -6711,7 +6710,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -6725,7 +6724,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -6739,7 +6738,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -6753,7 +6752,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -6767,7 +6766,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -6795,7 +6794,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -6809,7 +6808,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -6823,7 +6822,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -6837,7 +6836,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -6851,7 +6850,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -6865,7 +6864,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -6879,7 +6878,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -6893,7 +6892,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -6907,7 +6906,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -6921,7 +6920,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -6935,7 +6934,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -6949,7 +6948,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -6963,7 +6962,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -6977,7 +6976,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -6991,7 +6990,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -7005,7 +7004,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -7019,7 +7018,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -7033,7 +7032,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -7047,7 +7046,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -7061,7 +7060,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -7075,7 +7074,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -7089,7 +7088,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -7103,7 +7102,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -7117,7 +7116,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -7131,7 +7130,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -7145,7 +7144,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -7159,7 +7158,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -7173,7 +7172,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -7187,7 +7186,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -7201,7 +7200,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -7215,7 +7214,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -7229,7 +7228,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -7243,7 +7242,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -7257,7 +7256,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -7271,7 +7270,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -7285,7 +7284,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -7299,7 +7298,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -7313,7 +7312,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>109</v>
       </c>
@@ -7327,7 +7326,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>110</v>
       </c>
@@ -7341,7 +7340,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -7355,7 +7354,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -7369,7 +7368,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -7383,7 +7382,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -7397,7 +7396,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -7411,7 +7410,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>116</v>
       </c>
@@ -7425,7 +7424,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -7439,7 +7438,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>118</v>
       </c>
@@ -7453,7 +7452,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>119</v>
       </c>
@@ -7467,7 +7466,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>120</v>
       </c>
@@ -7481,7 +7480,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>121</v>
       </c>
@@ -7495,7 +7494,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>122</v>
       </c>
@@ -7509,7 +7508,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>123</v>
       </c>
@@ -7523,7 +7522,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>124</v>
       </c>
@@ -7537,7 +7536,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>125</v>
       </c>
@@ -7551,7 +7550,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>126</v>
       </c>
@@ -7565,7 +7564,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>127</v>
       </c>
@@ -7579,7 +7578,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>128</v>
       </c>
@@ -7593,7 +7592,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>129</v>
       </c>
@@ -7607,7 +7606,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>130</v>
       </c>
@@ -7621,7 +7620,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>131</v>
       </c>
@@ -7635,7 +7634,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>132</v>
       </c>
@@ -7649,7 +7648,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>133</v>
       </c>
@@ -7663,7 +7662,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>134</v>
       </c>
@@ -7677,7 +7676,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>135</v>
       </c>
@@ -7691,7 +7690,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>136</v>
       </c>
@@ -7705,7 +7704,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>137</v>
       </c>
@@ -7719,7 +7718,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>138</v>
       </c>
@@ -7733,7 +7732,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>139</v>
       </c>
@@ -7747,7 +7746,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>140</v>
       </c>
@@ -7761,7 +7760,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>141</v>
       </c>
@@ -7775,7 +7774,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>142</v>
       </c>
@@ -7789,7 +7788,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>143</v>
       </c>
@@ -7803,7 +7802,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>144</v>
       </c>
@@ -7817,7 +7816,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>145</v>
       </c>
@@ -7831,7 +7830,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>146</v>
       </c>
@@ -7845,7 +7844,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>147</v>
       </c>
@@ -7859,7 +7858,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>148</v>
       </c>
@@ -7873,7 +7872,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>149</v>
       </c>
@@ -7887,7 +7886,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>150</v>
       </c>
@@ -7901,7 +7900,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>151</v>
       </c>
@@ -7915,7 +7914,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>152</v>
       </c>
@@ -7929,7 +7928,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>153</v>
       </c>
@@ -7943,7 +7942,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>154</v>
       </c>
@@ -7957,7 +7956,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>155</v>
       </c>
@@ -7971,7 +7970,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>156</v>
       </c>
@@ -7985,7 +7984,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>157</v>
       </c>
@@ -7999,7 +7998,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>158</v>
       </c>
@@ -8013,7 +8012,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <v>159</v>
       </c>
@@ -8027,7 +8026,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <v>160</v>
       </c>
@@ -8041,7 +8040,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <v>161</v>
       </c>
@@ -8055,7 +8054,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <v>162</v>
       </c>
@@ -8069,7 +8068,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <v>163</v>
       </c>
@@ -8083,7 +8082,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <v>164</v>
       </c>
@@ -8097,7 +8096,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <v>165</v>
       </c>
@@ -8111,7 +8110,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>166</v>
       </c>
@@ -8125,7 +8124,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <v>167</v>
       </c>
@@ -8139,7 +8138,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <v>168</v>
       </c>
@@ -8153,7 +8152,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <v>169</v>
       </c>
@@ -8167,7 +8166,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <v>170</v>
       </c>
@@ -8181,7 +8180,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <v>171</v>
       </c>
@@ -8195,7 +8194,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <v>172</v>
       </c>
@@ -8209,7 +8208,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <v>173</v>
       </c>
@@ -8223,7 +8222,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <v>174</v>
       </c>
@@ -8237,7 +8236,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <v>175</v>
       </c>
@@ -8251,7 +8250,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <v>176</v>
       </c>
@@ -8265,7 +8264,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <v>177</v>
       </c>
@@ -8279,7 +8278,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <v>178</v>
       </c>
@@ -8293,7 +8292,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <v>179</v>
       </c>
@@ -8307,7 +8306,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <v>180</v>
       </c>
@@ -8321,7 +8320,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <v>181</v>
       </c>
@@ -8335,7 +8334,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <v>182</v>
       </c>
@@ -8433,7 +8432,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <v>189</v>
       </c>
@@ -8447,7 +8446,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <v>190</v>
       </c>
@@ -8461,7 +8460,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <v>191</v>
       </c>
@@ -8475,7 +8474,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <v>192</v>
       </c>
@@ -8489,7 +8488,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <v>193</v>
       </c>
@@ -8503,7 +8502,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <v>194</v>
       </c>
@@ -8517,7 +8516,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <v>195</v>
       </c>
@@ -8531,7 +8530,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <v>196</v>
       </c>
@@ -8545,7 +8544,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <v>197</v>
       </c>
@@ -8559,7 +8558,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <v>198</v>
       </c>
@@ -8573,7 +8572,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <v>199</v>
       </c>
@@ -8587,7 +8586,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <v>200</v>
       </c>
@@ -8601,7 +8600,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <v>201</v>
       </c>
@@ -8615,7 +8614,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <v>202</v>
       </c>
@@ -8629,7 +8628,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <v>203</v>
       </c>
@@ -8643,7 +8642,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <v>204</v>
       </c>
@@ -8657,7 +8656,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <v>205</v>
       </c>
@@ -8671,7 +8670,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <v>206</v>
       </c>
@@ -8685,7 +8684,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <v>207</v>
       </c>
@@ -8699,7 +8698,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <v>208</v>
       </c>
@@ -8713,7 +8712,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <v>209</v>
       </c>
@@ -8727,7 +8726,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <v>210</v>
       </c>
@@ -8741,7 +8740,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <v>211</v>
       </c>
@@ -8755,7 +8754,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <v>212</v>
       </c>
@@ -8769,7 +8768,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="214" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <v>213</v>
       </c>
@@ -8783,7 +8782,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <v>214</v>
       </c>
@@ -8797,7 +8796,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <v>215</v>
       </c>
@@ -8811,7 +8810,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <v>216</v>
       </c>
@@ -8825,7 +8824,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <v>217</v>
       </c>
@@ -8839,7 +8838,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <v>218</v>
       </c>
@@ -8853,7 +8852,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <v>219</v>
       </c>
@@ -8895,7 +8894,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <v>222</v>
       </c>
@@ -8909,7 +8908,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="224" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <v>223</v>
       </c>
@@ -8923,7 +8922,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <v>224</v>
       </c>
@@ -8951,7 +8950,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <v>226</v>
       </c>
@@ -9021,7 +9020,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="232" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <v>231</v>
       </c>
@@ -9035,7 +9034,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <v>232</v>
       </c>
@@ -9049,7 +9048,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <v>233</v>
       </c>
@@ -9063,7 +9062,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <v>234</v>
       </c>
@@ -9077,7 +9076,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <v>235</v>
       </c>
@@ -9091,7 +9090,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <v>236</v>
       </c>
@@ -9105,7 +9104,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="238" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <v>237</v>
       </c>
@@ -9119,7 +9118,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <v>238</v>
       </c>
@@ -9133,7 +9132,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <v>239</v>
       </c>
@@ -9147,7 +9146,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <v>240</v>
       </c>
@@ -9161,7 +9160,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <v>241</v>
       </c>
@@ -9175,7 +9174,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="243" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <v>242</v>
       </c>
@@ -9189,7 +9188,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <v>243</v>
       </c>
@@ -9203,7 +9202,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="245" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <v>244</v>
       </c>
@@ -9217,7 +9216,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="246" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <v>245</v>
       </c>
@@ -9231,7 +9230,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="247" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <v>246</v>
       </c>
@@ -9245,7 +9244,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="248" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <v>247</v>
       </c>
@@ -9259,7 +9258,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="249" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <v>248</v>
       </c>
@@ -9273,7 +9272,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="250" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <v>249</v>
       </c>
@@ -9287,7 +9286,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="251" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <v>250</v>
       </c>
@@ -9301,7 +9300,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="252" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <v>251</v>
       </c>
@@ -9315,7 +9314,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="253" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <v>252</v>
       </c>
@@ -9329,7 +9328,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="254" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
         <v>253</v>
       </c>
@@ -9343,7 +9342,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="255" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <v>254</v>
       </c>
@@ -9357,7 +9356,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="256" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <v>255</v>
       </c>
@@ -9371,7 +9370,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <v>256</v>
       </c>
@@ -9441,7 +9440,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
         <v>261</v>
       </c>
@@ -9455,7 +9454,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
         <v>262</v>
       </c>
@@ -9469,7 +9468,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <v>263</v>
       </c>
@@ -9483,7 +9482,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
         <v>264</v>
       </c>
@@ -9497,7 +9496,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
         <v>265</v>
       </c>
@@ -9511,7 +9510,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
         <v>266</v>
       </c>
@@ -9525,7 +9524,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="268" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
         <v>267</v>
       </c>
@@ -9539,7 +9538,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
         <v>268</v>
       </c>
@@ -9553,7 +9552,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
         <v>269</v>
       </c>
@@ -9567,7 +9566,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="271" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="2">
         <v>270</v>
       </c>
@@ -9581,7 +9580,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
         <v>271</v>
       </c>
@@ -9595,7 +9594,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="2">
         <v>272</v>
       </c>
@@ -9609,7 +9608,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
         <v>273</v>
       </c>
@@ -9623,7 +9622,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="275" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" s="2">
         <v>274</v>
       </c>
@@ -9637,7 +9636,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="276" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
         <v>275</v>
       </c>
@@ -9651,7 +9650,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="277" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" s="2">
         <v>276</v>
       </c>
@@ -9665,7 +9664,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="278" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
         <v>277</v>
       </c>
@@ -9679,7 +9678,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="279" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
         <v>278</v>
       </c>
@@ -9693,7 +9692,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="280" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
         <v>279</v>
       </c>
@@ -9707,7 +9706,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="281" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
         <v>280</v>
       </c>
@@ -9721,7 +9720,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" s="2">
         <v>281</v>
       </c>
@@ -9735,7 +9734,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="283" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" s="2">
         <v>282</v>
       </c>
@@ -9749,7 +9748,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="284" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" s="2">
         <v>283</v>
       </c>
@@ -9763,7 +9762,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="285" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" s="2">
         <v>284</v>
       </c>
@@ -9791,7 +9790,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="287" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" s="2">
         <v>286</v>
       </c>
@@ -9805,7 +9804,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="288" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" s="2">
         <v>287</v>
       </c>
@@ -9819,7 +9818,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="289" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="2">
         <v>288</v>
       </c>
@@ -9833,7 +9832,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="290" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="2">
         <v>289</v>
       </c>
@@ -9847,7 +9846,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="291" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="2">
         <v>290</v>
       </c>
@@ -9861,7 +9860,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="292" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" s="2">
         <v>291</v>
       </c>
@@ -9875,7 +9874,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="293" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" s="2">
         <v>292</v>
       </c>
@@ -9889,7 +9888,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="294" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" s="2">
         <v>293</v>
       </c>
@@ -9903,7 +9902,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="295" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="2">
         <v>294</v>
       </c>
@@ -9917,7 +9916,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="296" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="2">
         <v>295</v>
       </c>
@@ -9931,7 +9930,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="2">
         <v>296</v>
       </c>
@@ -9945,7 +9944,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="298" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="2">
         <v>297</v>
       </c>
@@ -9959,7 +9958,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="299" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="2">
         <v>298</v>
       </c>
@@ -9973,7 +9972,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="300" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="2">
         <v>299</v>
       </c>
@@ -9987,7 +9986,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="301" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="2">
         <v>300</v>
       </c>
@@ -10001,7 +10000,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="302" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="2">
         <v>301</v>
       </c>
@@ -10029,7 +10028,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="304" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" s="2">
         <v>303</v>
       </c>
@@ -10043,7 +10042,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="305" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" s="2">
         <v>304</v>
       </c>
@@ -10057,7 +10056,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="306" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" s="2">
         <v>305</v>
       </c>
@@ -10071,7 +10070,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="307" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" s="2">
         <v>306</v>
       </c>
@@ -10085,7 +10084,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="308" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" s="2">
         <v>307</v>
       </c>
@@ -10099,7 +10098,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="309" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" s="2">
         <v>308</v>
       </c>
@@ -10113,7 +10112,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="310" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="2">
         <v>309</v>
       </c>
@@ -10127,7 +10126,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="311" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" s="2">
         <v>310</v>
       </c>
@@ -10183,7 +10182,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="315" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" s="2">
         <v>314</v>
       </c>
@@ -10197,7 +10196,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="316" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" s="2">
         <v>315</v>
       </c>
@@ -10211,7 +10210,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="317" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" s="2">
         <v>316</v>
       </c>
@@ -10225,7 +10224,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="318" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" s="2">
         <v>317</v>
       </c>
@@ -10239,7 +10238,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="319" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" s="2">
         <v>318</v>
       </c>
@@ -10253,7 +10252,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="320" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" s="2">
         <v>319</v>
       </c>
@@ -10267,7 +10266,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="321" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" s="2">
         <v>320</v>
       </c>
@@ -10281,7 +10280,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="322" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" s="2">
         <v>321</v>
       </c>
@@ -10295,7 +10294,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="323" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" s="2">
         <v>322</v>
       </c>
@@ -10309,7 +10308,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="324" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" s="2">
         <v>323</v>
       </c>
@@ -10323,7 +10322,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="325" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" s="2">
         <v>324</v>
       </c>
@@ -10337,7 +10336,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="326" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" s="2">
         <v>325</v>
       </c>
@@ -10351,7 +10350,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="327" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" s="2">
         <v>326</v>
       </c>
@@ -10365,7 +10364,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="328" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" s="2">
         <v>327</v>
       </c>
@@ -10379,7 +10378,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="329" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" s="2">
         <v>328</v>
       </c>
@@ -10393,7 +10392,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="330" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" s="2">
         <v>329</v>
       </c>
@@ -10407,7 +10406,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="331" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" s="2">
         <v>330</v>
       </c>
@@ -10477,7 +10476,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="336" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" s="2">
         <v>335</v>
       </c>
@@ -10491,7 +10490,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="337" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" s="2">
         <v>336</v>
       </c>
@@ -10505,7 +10504,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="338" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" s="2">
         <v>337</v>
       </c>
@@ -10519,7 +10518,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="339" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" s="2">
         <v>338</v>
       </c>
@@ -10533,7 +10532,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="340" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" s="2">
         <v>339</v>
       </c>
@@ -10547,7 +10546,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="341" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" s="2">
         <v>340</v>
       </c>
@@ -10561,7 +10560,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="342" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" s="2">
         <v>341</v>
       </c>
@@ -10575,7 +10574,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="343" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" s="2">
         <v>342</v>
       </c>
@@ -10589,7 +10588,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="344" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" s="2">
         <v>343</v>
       </c>
@@ -10603,7 +10602,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="345" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" s="2">
         <v>344</v>
       </c>
@@ -10617,7 +10616,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="346" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" s="2">
         <v>345</v>
       </c>
@@ -10631,7 +10630,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="347" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" s="2">
         <v>346</v>
       </c>
@@ -10645,7 +10644,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="348" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" s="2">
         <v>347</v>
       </c>
@@ -10659,7 +10658,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="349" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" s="2">
         <v>348</v>
       </c>
@@ -10673,7 +10672,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="350" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" s="2">
         <v>349</v>
       </c>
@@ -10687,7 +10686,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="351" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" s="2">
         <v>350</v>
       </c>
@@ -10715,7 +10714,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="353" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" s="2">
         <v>352</v>
       </c>
@@ -10729,7 +10728,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="354" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" s="2">
         <v>353</v>
       </c>
@@ -10743,7 +10742,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="355" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" s="2">
         <v>354</v>
       </c>
@@ -10757,7 +10756,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="356" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" s="2">
         <v>355</v>
       </c>
@@ -10771,7 +10770,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="357" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" s="2">
         <v>356</v>
       </c>
@@ -10785,7 +10784,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="358" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" s="2">
         <v>357</v>
       </c>
@@ -10799,7 +10798,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="359" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" s="2">
         <v>358</v>
       </c>
@@ -10813,7 +10812,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="360" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" s="2">
         <v>359</v>
       </c>
@@ -10827,7 +10826,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="361" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" s="2">
         <v>360</v>
       </c>
@@ -10841,7 +10840,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="362" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" s="2">
         <v>361</v>
       </c>
@@ -10855,7 +10854,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="363" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" s="2">
         <v>362</v>
       </c>
@@ -10869,7 +10868,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="364" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" s="2">
         <v>363</v>
       </c>
@@ -10883,7 +10882,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="365" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" s="2">
         <v>364</v>
       </c>
@@ -10897,7 +10896,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="366" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" s="2">
         <v>365</v>
       </c>
@@ -10911,7 +10910,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="367" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" s="2">
         <v>366</v>
       </c>
@@ -10925,7 +10924,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="368" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" s="2">
         <v>367</v>
       </c>
@@ -10939,7 +10938,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="369" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" s="2">
         <v>368</v>
       </c>
@@ -10953,7 +10952,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="370" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" s="2">
         <v>369</v>
       </c>
@@ -10967,7 +10966,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="371" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" s="2">
         <v>370</v>
       </c>
@@ -10981,7 +10980,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="372" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" s="2">
         <v>371</v>
       </c>
@@ -10995,7 +10994,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="373" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" s="2">
         <v>372</v>
       </c>
@@ -11009,7 +11008,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="374" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" s="2">
         <v>373</v>
       </c>
@@ -11023,7 +11022,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="375" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" s="2">
         <v>374</v>
       </c>
@@ -11037,7 +11036,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="376" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" s="2">
         <v>375</v>
       </c>
@@ -11051,7 +11050,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="377" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" s="2">
         <v>376</v>
       </c>
@@ -11065,7 +11064,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="378" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" s="2">
         <v>377</v>
       </c>
@@ -11079,7 +11078,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="379" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" s="2">
         <v>378</v>
       </c>
@@ -11093,7 +11092,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="380" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" s="2">
         <v>379</v>
       </c>
@@ -11107,7 +11106,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="381" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" s="2">
         <v>380</v>
       </c>
@@ -11121,7 +11120,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="382" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" s="2">
         <v>381</v>
       </c>
@@ -11135,7 +11134,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="383" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" s="2">
         <v>382</v>
       </c>
@@ -11149,7 +11148,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="384" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" s="2">
         <v>383</v>
       </c>
@@ -11163,7 +11162,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="385" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" s="2">
         <v>384</v>
       </c>
@@ -11177,7 +11176,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="386" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" s="2">
         <v>385</v>
       </c>
@@ -11205,7 +11204,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="388" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" s="2">
         <v>387</v>
       </c>
@@ -11219,7 +11218,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="389" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" s="2">
         <v>388</v>
       </c>
@@ -11233,7 +11232,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="390" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" s="2">
         <v>389</v>
       </c>
@@ -11247,7 +11246,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="391" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" s="2">
         <v>390</v>
       </c>
@@ -11261,7 +11260,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="392" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" s="2">
         <v>391</v>
       </c>
@@ -11275,7 +11274,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="393" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" s="2">
         <v>392</v>
       </c>
@@ -11289,7 +11288,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="394" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" s="2">
         <v>393</v>
       </c>
@@ -11303,7 +11302,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="395" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" s="2">
         <v>394</v>
       </c>
@@ -11317,7 +11316,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="396" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" s="2">
         <v>395</v>
       </c>
@@ -11331,7 +11330,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="397" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" s="2">
         <v>396</v>
       </c>
@@ -11345,7 +11344,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="398" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" s="2">
         <v>397</v>
       </c>
@@ -11359,7 +11358,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="399" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" s="2">
         <v>398</v>
       </c>
@@ -11373,7 +11372,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="400" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" s="2">
         <v>399</v>
       </c>
@@ -11387,7 +11386,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="401" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" s="2">
         <v>400</v>
       </c>
@@ -11401,7 +11400,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="402" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" s="2">
         <v>401</v>
       </c>
@@ -11415,7 +11414,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="403" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" s="2">
         <v>402</v>
       </c>
@@ -11429,7 +11428,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="404" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" s="2">
         <v>403</v>
       </c>
@@ -11443,7 +11442,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="405" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" s="2">
         <v>404</v>
       </c>
@@ -11457,7 +11456,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="406" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" s="2">
         <v>405</v>
       </c>
@@ -11471,7 +11470,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="407" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" s="2">
         <v>406</v>
       </c>
@@ -11485,7 +11484,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="408" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" s="2">
         <v>407</v>
       </c>
@@ -11499,7 +11498,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="409" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" s="2">
         <v>408</v>
       </c>
@@ -11513,7 +11512,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="410" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" s="2">
         <v>409</v>
       </c>
@@ -11527,7 +11526,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="411" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" s="2">
         <v>410</v>
       </c>
@@ -11541,7 +11540,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="412" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" s="2">
         <v>411</v>
       </c>
@@ -11555,7 +11554,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="413" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" s="2">
         <v>412</v>
       </c>
@@ -11569,7 +11568,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="414" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414" s="2">
         <v>413</v>
       </c>
@@ -11583,7 +11582,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="415" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" s="2">
         <v>414</v>
       </c>
@@ -11597,7 +11596,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="416" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" s="2">
         <v>415</v>
       </c>
@@ -11611,7 +11610,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="417" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" s="2">
         <v>416</v>
       </c>
@@ -11625,7 +11624,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="418" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" s="2">
         <v>417</v>
       </c>
@@ -11639,7 +11638,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="419" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" s="2">
         <v>418</v>
       </c>
@@ -11667,7 +11666,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="421" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" s="2">
         <v>420</v>
       </c>
@@ -11681,7 +11680,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="422" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" s="2">
         <v>421</v>
       </c>
@@ -11695,7 +11694,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="423" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" s="2">
         <v>422</v>
       </c>
@@ -11709,7 +11708,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="424" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" s="2">
         <v>423</v>
       </c>
@@ -11723,7 +11722,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="425" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425" s="2">
         <v>424</v>
       </c>
@@ -11737,7 +11736,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="426" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426" s="2">
         <v>425</v>
       </c>
@@ -11751,7 +11750,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="427" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427" s="2">
         <v>426</v>
       </c>
@@ -11765,7 +11764,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="428" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428" s="2">
         <v>427</v>
       </c>
@@ -11779,7 +11778,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="429" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429" s="2">
         <v>428</v>
       </c>
@@ -11793,7 +11792,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="430" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430" s="2">
         <v>429</v>
       </c>
@@ -11821,7 +11820,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="432" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A432" s="2">
         <v>431</v>
       </c>
@@ -11835,7 +11834,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="433" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" s="2">
         <v>432</v>
       </c>
@@ -11849,7 +11848,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="434" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" s="2">
         <v>433</v>
       </c>
@@ -11863,7 +11862,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="435" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435" s="2">
         <v>434</v>
       </c>
@@ -11877,7 +11876,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="436" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436" s="2">
         <v>435</v>
       </c>
@@ -11891,7 +11890,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="437" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437" s="2">
         <v>436</v>
       </c>
@@ -11905,7 +11904,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="438" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438" s="2">
         <v>437</v>
       </c>
@@ -11919,7 +11918,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="439" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439" s="2">
         <v>438</v>
       </c>
@@ -11933,7 +11932,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="440" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440" s="2">
         <v>439</v>
       </c>
@@ -11947,7 +11946,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="441" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A441" s="2">
         <v>440</v>
       </c>
@@ -11961,7 +11960,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="442" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A442" s="2">
         <v>441</v>
       </c>
@@ -11975,7 +11974,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="443" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443" s="2">
         <v>442</v>
       </c>
@@ -11989,7 +11988,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="444" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444" s="2">
         <v>443</v>
       </c>
@@ -12003,7 +12002,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="445" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A445" s="2">
         <v>444</v>
       </c>
@@ -12017,7 +12016,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="446" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446" s="2">
         <v>445</v>
       </c>
@@ -12031,7 +12030,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="447" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A447" s="2">
         <v>446</v>
       </c>
@@ -12045,7 +12044,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="448" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A448" s="2">
         <v>447</v>
       </c>
@@ -12059,7 +12058,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="449" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A449" s="2">
         <v>448</v>
       </c>
@@ -12073,7 +12072,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="450" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A450" s="2">
         <v>449</v>
       </c>
@@ -12087,7 +12086,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="451" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A451" s="2">
         <v>450</v>
       </c>
@@ -12101,7 +12100,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="452" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A452" s="2">
         <v>451</v>
       </c>
@@ -12115,7 +12114,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="453" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A453" s="2">
         <v>452</v>
       </c>
@@ -12129,7 +12128,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="454" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A454" s="2">
         <v>453</v>
       </c>
@@ -12143,7 +12142,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="455" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A455" s="2">
         <v>454</v>
       </c>
@@ -12157,7 +12156,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="456" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A456" s="2">
         <v>455</v>
       </c>
@@ -12171,7 +12170,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="457" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A457" s="2">
         <v>456</v>
       </c>
@@ -12185,7 +12184,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="458" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A458" s="2">
         <v>457</v>
       </c>
@@ -12199,7 +12198,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="459" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A459" s="2">
         <v>458</v>
       </c>
@@ -12213,7 +12212,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="460" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A460" s="2">
         <v>459</v>
       </c>
@@ -12227,7 +12226,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="461" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A461" s="2">
         <v>460</v>
       </c>
@@ -12241,7 +12240,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="462" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A462" s="2">
         <v>461</v>
       </c>
@@ -12255,7 +12254,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="463" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A463" s="2">
         <v>462</v>
       </c>
@@ -12269,7 +12268,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="464" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A464" s="2">
         <v>463</v>
       </c>
@@ -12283,7 +12282,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="465" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A465" s="2">
         <v>464</v>
       </c>
@@ -12297,7 +12296,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="466" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A466" s="2">
         <v>465</v>
       </c>
@@ -12311,7 +12310,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="467" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A467" s="2">
         <v>466</v>
       </c>
@@ -12339,7 +12338,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="469" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A469" s="2">
         <v>468</v>
       </c>
@@ -12353,7 +12352,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="470" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A470" s="2">
         <v>469</v>
       </c>
@@ -12367,7 +12366,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="471" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A471" s="2">
         <v>470</v>
       </c>
@@ -12381,7 +12380,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="472" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A472" s="2">
         <v>471</v>
       </c>
@@ -12395,7 +12394,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="473" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A473" s="2">
         <v>472</v>
       </c>
@@ -12409,7 +12408,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="474" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A474" s="2">
         <v>473</v>
       </c>
@@ -12423,7 +12422,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="475" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A475" s="2">
         <v>474</v>
       </c>
@@ -12437,7 +12436,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="476" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A476" s="2">
         <v>475</v>
       </c>
@@ -12451,7 +12450,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="477" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A477" s="2">
         <v>476</v>
       </c>
@@ -12465,7 +12464,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="478" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A478" s="2">
         <v>477</v>
       </c>
@@ -12479,7 +12478,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="479" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A479" s="2">
         <v>478</v>
       </c>
@@ -12493,7 +12492,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="480" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A480" s="2">
         <v>479</v>
       </c>
@@ -12507,7 +12506,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="481" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A481" s="2">
         <v>480</v>
       </c>
@@ -12521,7 +12520,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="482" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A482" s="2">
         <v>481</v>
       </c>
@@ -12535,7 +12534,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="483" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A483" s="2">
         <v>482</v>
       </c>
@@ -12549,7 +12548,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="484" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A484" s="2">
         <v>483</v>
       </c>
@@ -12563,7 +12562,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="485" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A485" s="2">
         <v>484</v>
       </c>
@@ -12577,7 +12576,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="486" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A486" s="2">
         <v>485</v>
       </c>
@@ -12591,7 +12590,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="487" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A487" s="2">
         <v>486</v>
       </c>
@@ -12605,7 +12604,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="488" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A488" s="2">
         <v>487</v>
       </c>
@@ -12619,7 +12618,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="489" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A489" s="2">
         <v>488</v>
       </c>
@@ -12633,7 +12632,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="490" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A490" s="2">
         <v>489</v>
       </c>
@@ -12647,7 +12646,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="491" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A491" s="2">
         <v>490</v>
       </c>
@@ -12661,7 +12660,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="492" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A492" s="2">
         <v>491</v>
       </c>
@@ -12675,7 +12674,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="493" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A493" s="2">
         <v>492</v>
       </c>
@@ -12689,7 +12688,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="494" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A494" s="2">
         <v>493</v>
       </c>
@@ -12703,7 +12702,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="495" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A495" s="2">
         <v>494</v>
       </c>
@@ -12717,7 +12716,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="496" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A496" s="2">
         <v>495</v>
       </c>
@@ -12731,7 +12730,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="497" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A497" s="2">
         <v>496</v>
       </c>
@@ -12745,7 +12744,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="498" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A498" s="2">
         <v>497</v>
       </c>
@@ -12759,7 +12758,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="499" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A499" s="2">
         <v>498</v>
       </c>
@@ -12773,7 +12772,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="500" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A500" s="2">
         <v>499</v>
       </c>
@@ -12787,7 +12786,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="501" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A501" s="2">
         <v>500</v>
       </c>
@@ -12801,7 +12800,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="502" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A502" s="2">
         <v>501</v>
       </c>
@@ -12815,7 +12814,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="503" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A503" s="2">
         <v>502</v>
       </c>
@@ -12829,7 +12828,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="504" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A504" s="2">
         <v>503</v>
       </c>
@@ -12843,7 +12842,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="505" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A505" s="2">
         <v>504</v>
       </c>
@@ -12857,7 +12856,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="506" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A506" s="2">
         <v>505</v>
       </c>
@@ -12871,7 +12870,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="507" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A507" s="2">
         <v>506</v>
       </c>
@@ -12885,7 +12884,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="508" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A508" s="2">
         <v>507</v>
       </c>
@@ -12927,7 +12926,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="511" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A511" s="2">
         <v>510</v>
       </c>
@@ -12941,7 +12940,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="512" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A512" s="2">
         <v>511</v>
       </c>
@@ -12955,7 +12954,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="513" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A513" s="2">
         <v>512</v>
       </c>
@@ -12969,7 +12968,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="514" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A514" s="2">
         <v>513</v>
       </c>
@@ -12983,7 +12982,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="515" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A515" s="2">
         <v>514</v>
       </c>
@@ -12997,7 +12996,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="516" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A516" s="2">
         <v>515</v>
       </c>
@@ -13011,7 +13010,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="517" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A517" s="2">
         <v>516</v>
       </c>
@@ -13025,7 +13024,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="518" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A518" s="2">
         <v>517</v>
       </c>
@@ -13039,7 +13038,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="519" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A519" s="2">
         <v>518</v>
       </c>
@@ -13053,7 +13052,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="520" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A520" s="2">
         <v>519</v>
       </c>
@@ -13067,7 +13066,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="521" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A521" s="2">
         <v>520</v>
       </c>
@@ -13081,7 +13080,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="522" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A522" s="2">
         <v>521</v>
       </c>
@@ -13095,7 +13094,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="523" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A523" s="2">
         <v>522</v>
       </c>
@@ -13109,7 +13108,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="524" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A524" s="2">
         <v>523</v>
       </c>
@@ -13123,7 +13122,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="525" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A525" s="2">
         <v>524</v>
       </c>
@@ -13137,7 +13136,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="526" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A526" s="2">
         <v>525</v>
       </c>
@@ -13151,7 +13150,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="527" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A527" s="2">
         <v>526</v>
       </c>
@@ -13165,7 +13164,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="528" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A528" s="2">
         <v>527</v>
       </c>
@@ -13179,7 +13178,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="529" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A529" s="2">
         <v>528</v>
       </c>
@@ -13193,7 +13192,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="530" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A530" s="2">
         <v>529</v>
       </c>
@@ -13207,7 +13206,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="531" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A531" s="2">
         <v>530</v>
       </c>
@@ -13221,7 +13220,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="532" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A532" s="2">
         <v>531</v>
       </c>
@@ -13235,7 +13234,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="533" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A533" s="2">
         <v>532</v>
       </c>
@@ -13249,7 +13248,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="534" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A534" s="2">
         <v>533</v>
       </c>
@@ -13263,7 +13262,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="535" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A535" s="2">
         <v>534</v>
       </c>
@@ -13277,7 +13276,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="536" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A536" s="2">
         <v>535</v>
       </c>
@@ -13291,7 +13290,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="537" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A537" s="2">
         <v>536</v>
       </c>
@@ -13305,7 +13304,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="538" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A538" s="2">
         <v>537</v>
       </c>
@@ -13319,7 +13318,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="539" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A539" s="2">
         <v>538</v>
       </c>
@@ -13333,7 +13332,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="540" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A540" s="2">
         <v>539</v>
       </c>
@@ -13347,7 +13346,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="541" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A541" s="2">
         <v>540</v>
       </c>
@@ -13361,7 +13360,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="542" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A542" s="2">
         <v>541</v>
       </c>
@@ -13375,7 +13374,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="543" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A543" s="2">
         <v>542</v>
       </c>
@@ -13389,7 +13388,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="544" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A544" s="2">
         <v>543</v>
       </c>
@@ -13403,7 +13402,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="545" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A545" s="2">
         <v>544</v>
       </c>
@@ -13417,7 +13416,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="546" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A546" s="2">
         <v>545</v>
       </c>
@@ -13431,7 +13430,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="547" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A547" s="2">
         <v>546</v>
       </c>
@@ -13445,7 +13444,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="548" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A548" s="2">
         <v>547</v>
       </c>
@@ -13459,7 +13458,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="549" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A549" s="2">
         <v>548</v>
       </c>
@@ -13473,7 +13472,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="550" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A550" s="2">
         <v>549</v>
       </c>
@@ -13487,7 +13486,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="551" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A551" s="2">
         <v>550</v>
       </c>
@@ -13501,7 +13500,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="552" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A552" s="2">
         <v>551</v>
       </c>
@@ -13515,7 +13514,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="553" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A553" s="2">
         <v>552</v>
       </c>
@@ -13529,7 +13528,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="554" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A554" s="2">
         <v>553</v>
       </c>
@@ -13571,7 +13570,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="557" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A557" s="2">
         <v>556</v>
       </c>
@@ -13599,7 +13598,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="559" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A559" s="2">
         <v>558</v>
       </c>
@@ -13613,7 +13612,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="560" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A560" s="2">
         <v>559</v>
       </c>
@@ -13627,7 +13626,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="561" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A561" s="2">
         <v>560</v>
       </c>
@@ -13641,7 +13640,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="562" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A562" s="2">
         <v>561</v>
       </c>
@@ -13655,7 +13654,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="563" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A563" s="2">
         <v>562</v>
       </c>
@@ -13669,7 +13668,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="564" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A564" s="2">
         <v>563</v>
       </c>
@@ -13683,7 +13682,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="565" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A565" s="2">
         <v>564</v>
       </c>
@@ -13697,7 +13696,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="566" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A566" s="2">
         <v>565</v>
       </c>
@@ -13711,7 +13710,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="567" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A567" s="2">
         <v>566</v>
       </c>
@@ -13725,7 +13724,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="568" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A568" s="2">
         <v>567</v>
       </c>
@@ -13739,7 +13738,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="569" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A569" s="2">
         <v>568</v>
       </c>
@@ -13753,7 +13752,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="570" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A570" s="2">
         <v>569</v>
       </c>
@@ -13767,7 +13766,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="571" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A571" s="2">
         <v>570</v>
       </c>
@@ -13781,7 +13780,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="572" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A572" s="2">
         <v>571</v>
       </c>
@@ -13795,7 +13794,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="573" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A573" s="2">
         <v>572</v>
       </c>
@@ -13809,7 +13808,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="574" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A574" s="2">
         <v>573</v>
       </c>
@@ -13823,7 +13822,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="575" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A575" s="2">
         <v>574</v>
       </c>
@@ -13837,7 +13836,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="576" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A576" s="2">
         <v>575</v>
       </c>
@@ -13851,7 +13850,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="577" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A577" s="2">
         <v>576</v>
       </c>
@@ -13865,7 +13864,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="578" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A578" s="2">
         <v>577</v>
       </c>
@@ -13879,7 +13878,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="579" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A579" s="2">
         <v>578</v>
       </c>
@@ -13921,7 +13920,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="582" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A582" s="2">
         <v>581</v>
       </c>
@@ -13935,7 +13934,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="583" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A583" s="2">
         <v>582</v>
       </c>
@@ -13949,7 +13948,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="584" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A584" s="2">
         <v>583</v>
       </c>
@@ -13963,7 +13962,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="585" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A585" s="2">
         <v>584</v>
       </c>
@@ -13977,7 +13976,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="586" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A586" s="2">
         <v>585</v>
       </c>
@@ -13991,7 +13990,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="587" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A587" s="2">
         <v>586</v>
       </c>
@@ -14005,7 +14004,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="588" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A588" s="2">
         <v>587</v>
       </c>
@@ -14019,7 +14018,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="589" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A589" s="2">
         <v>588</v>
       </c>
@@ -14033,7 +14032,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="590" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A590" s="2">
         <v>589</v>
       </c>
@@ -14075,7 +14074,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="593" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A593" s="2">
         <v>592</v>
       </c>
@@ -14089,7 +14088,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="594" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A594" s="2">
         <v>593</v>
       </c>
@@ -14103,7 +14102,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="595" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A595" s="2">
         <v>594</v>
       </c>
@@ -14117,7 +14116,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="596" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A596" s="2">
         <v>595</v>
       </c>
@@ -14131,7 +14130,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="597" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A597" s="2">
         <v>596</v>
       </c>
@@ -14145,7 +14144,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="598" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A598" s="2">
         <v>597</v>
       </c>
@@ -14159,7 +14158,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="599" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A599" s="2">
         <v>598</v>
       </c>
@@ -14173,7 +14172,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="600" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A600" s="2">
         <v>599</v>
       </c>
@@ -14187,7 +14186,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="601" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A601" s="2">
         <v>600</v>
       </c>
@@ -14201,7 +14200,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="602" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A602" s="2">
         <v>601</v>
       </c>
@@ -14215,7 +14214,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="603" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A603" s="2">
         <v>602</v>
       </c>
@@ -14229,7 +14228,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="604" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A604" s="2">
         <v>603</v>
       </c>
@@ -14243,7 +14242,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="605" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A605" s="2">
         <v>604</v>
       </c>
@@ -14257,7 +14256,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="606" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A606" s="2">
         <v>605</v>
       </c>
@@ -14271,7 +14270,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="607" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A607" s="2">
         <v>606</v>
       </c>
@@ -14285,7 +14284,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="608" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A608" s="2">
         <v>607</v>
       </c>
@@ -14299,7 +14298,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="609" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A609" s="2">
         <v>608</v>
       </c>
@@ -14313,7 +14312,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="610" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A610" s="2">
         <v>609</v>
       </c>
@@ -14327,7 +14326,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="611" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A611" s="2">
         <v>610</v>
       </c>
@@ -14341,7 +14340,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="612" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A612" s="2">
         <v>611</v>
       </c>
@@ -14355,7 +14354,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="613" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A613" s="2">
         <v>612</v>
       </c>
@@ -14369,7 +14368,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="614" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A614" s="2">
         <v>613</v>
       </c>
@@ -14383,7 +14382,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="615" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A615" s="2">
         <v>614</v>
       </c>
@@ -14397,7 +14396,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="616" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A616" s="2">
         <v>615</v>
       </c>
@@ -14411,7 +14410,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="617" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A617" s="2">
         <v>616</v>
       </c>
@@ -14481,7 +14480,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="622" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A622" s="2">
         <v>621</v>
       </c>
@@ -14495,7 +14494,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="623" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A623" s="2">
         <v>622</v>
       </c>
@@ -14509,7 +14508,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="624" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A624" s="2">
         <v>623</v>
       </c>
@@ -14523,7 +14522,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="625" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A625" s="2">
         <v>624</v>
       </c>
@@ -14537,7 +14536,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="626" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A626" s="2">
         <v>625</v>
       </c>
@@ -14551,7 +14550,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="627" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A627" s="2">
         <v>626</v>
       </c>
@@ -14565,7 +14564,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="628" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A628" s="2">
         <v>627</v>
       </c>
@@ -14579,7 +14578,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="629" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A629" s="2">
         <v>628</v>
       </c>
@@ -14593,7 +14592,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="630" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A630" s="2">
         <v>629</v>
       </c>
@@ -14607,7 +14606,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="631" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A631" s="2">
         <v>630</v>
       </c>
@@ -14621,7 +14620,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="632" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A632" s="2">
         <v>631</v>
       </c>
@@ -14635,7 +14634,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="633" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A633" s="2">
         <v>632</v>
       </c>
@@ -14649,7 +14648,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="634" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A634" s="2">
         <v>633</v>
       </c>
@@ -14663,7 +14662,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="635" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A635" s="2">
         <v>634</v>
       </c>
@@ -14677,7 +14676,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="636" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A636" s="2">
         <v>635</v>
       </c>
@@ -14691,7 +14690,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="637" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A637" s="2">
         <v>636</v>
       </c>
@@ -14705,7 +14704,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="638" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A638" s="2">
         <v>637</v>
       </c>
@@ -14719,7 +14718,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="639" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A639" s="2">
         <v>638</v>
       </c>
@@ -14733,7 +14732,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="640" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A640" s="2">
         <v>639</v>
       </c>
@@ -14747,7 +14746,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="641" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A641" s="2">
         <v>640</v>
       </c>
@@ -14761,7 +14760,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="642" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A642" s="2">
         <v>641</v>
       </c>
@@ -14775,7 +14774,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="643" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A643" s="2">
         <v>642</v>
       </c>
@@ -14789,7 +14788,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="644" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A644" s="2">
         <v>643</v>
       </c>
@@ -14803,7 +14802,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="645" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A645" s="2">
         <v>644</v>
       </c>
@@ -14817,7 +14816,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="646" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A646" s="2">
         <v>645</v>
       </c>
@@ -14831,7 +14830,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="647" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A647" s="2">
         <v>646</v>
       </c>
@@ -14845,7 +14844,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="648" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A648" s="2">
         <v>647</v>
       </c>
@@ -14859,7 +14858,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="649" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A649" s="2">
         <v>648</v>
       </c>
@@ -14873,7 +14872,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="650" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A650" s="2">
         <v>649</v>
       </c>
@@ -14887,7 +14886,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="651" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A651" s="2">
         <v>650</v>
       </c>
@@ -14901,7 +14900,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="652" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A652" s="2">
         <v>651</v>
       </c>
@@ -14915,7 +14914,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="653" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A653" s="2">
         <v>652</v>
       </c>
@@ -14929,7 +14928,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="654" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A654" s="2">
         <v>653</v>
       </c>
@@ -14943,7 +14942,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="655" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A655" s="2">
         <v>654</v>
       </c>
@@ -14957,7 +14956,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="656" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A656" s="2">
         <v>655</v>
       </c>
@@ -14971,7 +14970,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="657" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A657" s="2">
         <v>656</v>
       </c>
@@ -14985,7 +14984,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="658" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A658" s="2">
         <v>657</v>
       </c>
@@ -14999,7 +14998,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="659" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A659" s="2">
         <v>658</v>
       </c>
@@ -15069,7 +15068,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="664" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A664" s="2">
         <v>663</v>
       </c>
@@ -15083,7 +15082,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="665" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A665" s="2">
         <v>664</v>
       </c>
@@ -15097,7 +15096,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="666" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A666" s="2">
         <v>665</v>
       </c>
@@ -15111,7 +15110,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="667" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A667" s="2">
         <v>666</v>
       </c>
@@ -15125,7 +15124,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="668" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A668" s="2">
         <v>667</v>
       </c>
@@ -15139,7 +15138,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="669" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A669" s="2">
         <v>668</v>
       </c>
@@ -15153,7 +15152,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="670" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A670" s="2">
         <v>669</v>
       </c>
@@ -15167,7 +15166,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="671" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A671" s="2">
         <v>670</v>
       </c>
@@ -15181,7 +15180,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="672" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A672" s="2">
         <v>671</v>
       </c>
@@ -15195,7 +15194,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="673" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A673" s="2">
         <v>672</v>
       </c>
@@ -15209,7 +15208,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="674" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A674" s="2">
         <v>673</v>
       </c>
@@ -15223,7 +15222,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="675" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A675" s="2">
         <v>674</v>
       </c>
@@ -15237,7 +15236,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="676" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A676" s="2">
         <v>675</v>
       </c>
@@ -15251,7 +15250,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="677" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A677" s="2">
         <v>676</v>
       </c>
@@ -15265,7 +15264,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="678" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A678" s="2">
         <v>677</v>
       </c>
@@ -15279,7 +15278,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="679" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A679" s="2">
         <v>678</v>
       </c>
@@ -15293,7 +15292,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="680" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A680" s="2">
         <v>679</v>
       </c>
@@ -15307,7 +15306,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="681" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A681" s="2">
         <v>680</v>
       </c>
@@ -15321,7 +15320,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="682" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A682" s="2">
         <v>681</v>
       </c>
@@ -15335,7 +15334,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="683" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A683" s="2">
         <v>682</v>
       </c>
@@ -15349,7 +15348,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="684" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A684" s="2">
         <v>683</v>
       </c>
@@ -15363,7 +15362,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="685" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A685" s="2">
         <v>684</v>
       </c>
@@ -15377,7 +15376,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="686" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A686" s="2">
         <v>685</v>
       </c>
@@ -15391,7 +15390,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="687" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A687" s="2">
         <v>686</v>
       </c>
@@ -15405,7 +15404,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="688" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A688" s="2">
         <v>687</v>
       </c>
@@ -15419,7 +15418,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="689" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A689" s="2">
         <v>688</v>
       </c>
@@ -15433,7 +15432,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="690" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A690" s="2">
         <v>689</v>
       </c>
@@ -15447,7 +15446,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="691" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A691" s="2">
         <v>690</v>
       </c>
@@ -15461,7 +15460,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="692" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A692" s="2">
         <v>691</v>
       </c>
@@ -15475,7 +15474,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="693" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A693" s="2">
         <v>692</v>
       </c>
@@ -15489,7 +15488,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="694" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A694" s="2">
         <v>693</v>
       </c>
@@ -15503,7 +15502,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="695" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A695" s="2">
         <v>694</v>
       </c>
@@ -15517,7 +15516,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="696" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A696" s="2">
         <v>695</v>
       </c>
@@ -15531,7 +15530,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="697" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A697" s="2">
         <v>696</v>
       </c>
@@ -15545,7 +15544,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="698" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A698" s="2">
         <v>697</v>
       </c>
@@ -15559,7 +15558,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="699" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A699" s="2">
         <v>698</v>
       </c>
@@ -15573,7 +15572,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="700" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A700" s="2">
         <v>699</v>
       </c>
@@ -15587,7 +15586,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="701" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A701" s="2">
         <v>700</v>
       </c>
@@ -15601,7 +15600,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="702" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A702" s="2">
         <v>701</v>
       </c>
@@ -15615,7 +15614,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="703" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A703" s="2">
         <v>702</v>
       </c>
@@ -15629,7 +15628,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="704" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A704" s="2">
         <v>703</v>
       </c>
@@ -15643,7 +15642,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="705" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A705" s="2">
         <v>704</v>
       </c>
@@ -15657,7 +15656,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="706" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A706" s="2">
         <v>705</v>
       </c>
@@ -15671,7 +15670,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="707" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A707" s="2">
         <v>706</v>
       </c>
@@ -15685,7 +15684,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="708" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A708" s="2">
         <v>707</v>
       </c>
@@ -15699,7 +15698,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="709" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A709" s="2">
         <v>708</v>
       </c>
@@ -15713,7 +15712,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="710" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A710" s="2">
         <v>709</v>
       </c>
@@ -15727,7 +15726,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="711" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A711" s="2">
         <v>710</v>
       </c>
@@ -15741,7 +15740,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="712" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A712" s="2">
         <v>711</v>
       </c>
@@ -15755,7 +15754,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="713" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A713" s="2">
         <v>712</v>
       </c>
@@ -15769,7 +15768,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="714" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A714" s="2">
         <v>713</v>
       </c>
@@ -15783,7 +15782,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="715" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A715" s="2">
         <v>714</v>
       </c>
@@ -15867,7 +15866,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="721" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A721" s="2">
         <v>720</v>
       </c>
@@ -15881,7 +15880,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="722" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A722" s="2">
         <v>721</v>
       </c>
@@ -15895,7 +15894,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="723" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A723" s="2">
         <v>722</v>
       </c>
@@ -15909,7 +15908,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="724" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A724" s="2">
         <v>723</v>
       </c>
@@ -15923,7 +15922,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="725" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A725" s="2">
         <v>724</v>
       </c>
@@ -15937,7 +15936,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="726" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A726" s="2">
         <v>725</v>
       </c>
@@ -15951,7 +15950,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="727" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A727" s="2">
         <v>726</v>
       </c>
@@ -15965,7 +15964,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="728" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A728" s="2">
         <v>727</v>
       </c>
@@ -15979,7 +15978,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="729" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A729" s="2">
         <v>728</v>
       </c>
@@ -15993,7 +15992,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="730" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A730" s="2">
         <v>729</v>
       </c>
@@ -16007,7 +16006,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="731" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A731" s="2">
         <v>730</v>
       </c>
@@ -16021,7 +16020,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="732" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A732" s="2">
         <v>731</v>
       </c>
@@ -16035,7 +16034,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="733" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A733" s="2">
         <v>732</v>
       </c>
@@ -16049,7 +16048,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="734" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A734" s="2">
         <v>733</v>
       </c>
@@ -16063,7 +16062,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="735" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A735" s="2">
         <v>734</v>
       </c>
@@ -16077,7 +16076,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="736" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A736" s="2">
         <v>735</v>
       </c>
@@ -16091,7 +16090,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="737" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A737" s="2">
         <v>736</v>
       </c>
@@ -16105,7 +16104,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="738" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A738" s="2">
         <v>737</v>
       </c>
@@ -16119,7 +16118,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="739" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A739" s="2">
         <v>738</v>
       </c>
@@ -16133,7 +16132,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="740" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A740" s="2">
         <v>739</v>
       </c>
@@ -16147,7 +16146,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="741" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A741" s="2">
         <v>740</v>
       </c>
@@ -16161,7 +16160,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="742" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A742" s="2">
         <v>741</v>
       </c>
@@ -16175,7 +16174,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="743" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A743" s="2">
         <v>742</v>
       </c>
@@ -16189,7 +16188,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="744" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A744" s="2">
         <v>743</v>
       </c>
@@ -16203,7 +16202,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="745" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A745" s="2">
         <v>744</v>
       </c>
@@ -16217,7 +16216,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="746" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A746" s="2">
         <v>745</v>
       </c>
@@ -16231,7 +16230,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="747" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A747" s="2">
         <v>746</v>
       </c>
@@ -16245,7 +16244,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="748" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A748" s="2">
         <v>747</v>
       </c>
@@ -16259,7 +16258,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="749" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A749" s="2">
         <v>748</v>
       </c>
@@ -16273,7 +16272,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="750" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A750" s="2">
         <v>749</v>
       </c>
@@ -16287,7 +16286,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="751" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A751" s="2">
         <v>750</v>
       </c>
@@ -16301,7 +16300,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="752" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A752" s="2">
         <v>751</v>
       </c>
@@ -16315,7 +16314,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="753" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A753" s="2">
         <v>752</v>
       </c>
@@ -16329,7 +16328,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="754" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A754" s="2">
         <v>753</v>
       </c>
@@ -16343,7 +16342,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="755" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A755" s="2">
         <v>754</v>
       </c>
@@ -16357,7 +16356,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="756" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A756" s="2">
         <v>755</v>
       </c>
@@ -16371,7 +16370,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="757" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A757" s="2">
         <v>756</v>
       </c>
@@ -16385,7 +16384,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="758" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A758" s="2">
         <v>757</v>
       </c>
@@ -16399,7 +16398,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="759" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A759" s="2">
         <v>758</v>
       </c>
@@ -16413,7 +16412,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="760" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A760" s="2">
         <v>759</v>
       </c>
@@ -16427,7 +16426,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="761" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A761" s="2">
         <v>760</v>
       </c>
@@ -16441,7 +16440,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="762" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A762" s="2">
         <v>761</v>
       </c>
@@ -16455,7 +16454,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="763" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A763" s="2">
         <v>762</v>
       </c>
@@ -16469,7 +16468,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="764" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A764" s="2">
         <v>763</v>
       </c>
@@ -16483,7 +16482,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="765" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A765" s="2">
         <v>764</v>
       </c>
@@ -16497,7 +16496,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="766" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A766" s="2">
         <v>765</v>
       </c>
@@ -16511,7 +16510,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="767" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A767" s="2">
         <v>766</v>
       </c>
@@ -16525,7 +16524,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="768" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A768" s="2">
         <v>767</v>
       </c>
@@ -16539,7 +16538,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="769" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A769" s="2">
         <v>768</v>
       </c>
@@ -16567,7 +16566,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="771" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A771" s="2">
         <v>770</v>
       </c>
@@ -16581,7 +16580,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="772" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A772" s="2">
         <v>771</v>
       </c>
@@ -16595,7 +16594,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="773" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A773" s="2">
         <v>772</v>
       </c>
@@ -16609,7 +16608,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="774" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A774" s="2">
         <v>773</v>
       </c>
@@ -16637,7 +16636,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="776" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A776" s="2">
         <v>775</v>
       </c>
@@ -16651,7 +16650,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="777" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A777" s="2">
         <v>776</v>
       </c>
@@ -16665,7 +16664,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="778" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A778" s="2">
         <v>777</v>
       </c>
@@ -16679,7 +16678,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="779" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A779" s="2">
         <v>778</v>
       </c>
@@ -16693,7 +16692,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="780" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A780" s="2">
         <v>779</v>
       </c>
@@ -16707,7 +16706,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="781" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A781" s="2">
         <v>780</v>
       </c>
@@ -16735,7 +16734,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="783" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A783" s="2">
         <v>782</v>
       </c>
@@ -16749,7 +16748,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="784" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A784" s="2">
         <v>783</v>
       </c>
@@ -16763,7 +16762,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="785" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A785" s="2">
         <v>784</v>
       </c>
@@ -16777,7 +16776,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="786" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A786" s="2">
         <v>785</v>
       </c>
@@ -16791,7 +16790,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="787" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A787" s="2">
         <v>786</v>
       </c>
@@ -16805,7 +16804,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="788" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A788" s="2">
         <v>787</v>
       </c>
@@ -16819,7 +16818,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="789" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A789" s="2">
         <v>788</v>
       </c>
@@ -16833,7 +16832,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="790" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A790" s="2">
         <v>789</v>
       </c>
@@ -16847,7 +16846,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="791" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A791" s="2">
         <v>790</v>
       </c>
@@ -16861,7 +16860,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="792" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A792" s="2">
         <v>791</v>
       </c>
@@ -16875,7 +16874,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="793" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A793" s="2">
         <v>792</v>
       </c>
@@ -16889,7 +16888,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="794" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A794" s="2">
         <v>793</v>
       </c>
@@ -16903,7 +16902,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="795" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A795" s="2">
         <v>794</v>
       </c>
@@ -16917,7 +16916,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="796" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A796" s="2">
         <v>795</v>
       </c>
@@ -16931,7 +16930,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="797" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A797" s="2">
         <v>796</v>
       </c>
@@ -16945,7 +16944,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="798" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A798" s="2">
         <v>797</v>
       </c>
@@ -16960,73 +16959,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D798" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="\backend\src\src-attachments\src\main\java\org\eclipse\sw360\attachments\AttachmentHandler.java"/>
-        <filter val="\backend\src\src-attachments\src\test\java\org\eclipse\sw360\attachments\AttachmentHandlerTest.java"/>
-        <filter val="\backend\src-common\src\main\java\org\eclipse\sw360\datahandler\db\AttachmentAwareDatabaseHandler.java"/>
-        <filter val="\backend\src-common\src\test\java\org\eclipse\sw360\datahandler\db\AttachmentAwareDatabaseHandlerTest.java"/>
-        <filter val="\backend\utils\src\main\java\org\eclipse\sw360\attachments\db\RemoteAttachmentDownloader.java"/>
-        <filter val="\backend\utils\src\test\java\org\eclipse\sw360\attachments\db\RemoteAttachmentDownloaderTest.java"/>
-        <filter val="\clients\client\src\main\java\org\eclipse\sw360\clients\adapter\AttachmentUploadRequest.java"/>
-        <filter val="\clients\client\src\main\java\org\eclipse\sw360\clients\rest\resource\attachments\SW360Attachment.java"/>
-        <filter val="\clients\client\src\main\java\org\eclipse\sw360\clients\rest\resource\releases\SW360AttachmentSetEmbedded.java"/>
-        <filter val="\clients\client\src\main\java\org\eclipse\sw360\clients\rest\SW360AttachmentAwareClient.java"/>
-        <filter val="\clients\client\src\test\java\org\eclipse\sw360\clients\adapter\AttachmentUploadRequestTest.java"/>
-        <filter val="\clients\client\src\test\java\org\eclipse\sw360\clients\rest\resource\attachments\SW360AttachmentCheckStatusTest.java"/>
-        <filter val="\clients\client\src\test\java\org\eclipse\sw360\clients\rest\SW360AttachmentClientIT.java"/>
-        <filter val="\frontend\sw360-portlet\src\main\java\org\eclipse\sw360\portal\common\AttachmentPortletUtils.java"/>
-        <filter val="\frontend\sw360-portlet\src\main\java\org\eclipse\sw360\portal\portlets\AttachmentAwarePortlet.java"/>
-        <filter val="\frontend\sw360-portlet\src\main\java\org\eclipse\sw360\portal\tags\CompareAttachments.java"/>
-        <filter val="\libraries\commonIO\src\main\java\org\eclipse\sw360\commonIO\AttachmentFrontendUtils.java"/>
-        <filter val="\libraries\importers\src\main\java\org\eclipse\sw360\importer\ComponentAttachmentCSVRecord.java"/>
-        <filter val="\libraries\importers\src\test\java\org\eclipse\sw360\importer\ComponentAndAttachmentAwareDBTest.java"/>
-        <filter val="\libraries\lib-datahandler\src\main\java\org\eclipse\sw360\datahandler\couchdb\AttachmentConnector.java"/>
-        <filter val="\libraries\lib-datahandler\src\test\java\org\eclipse\sw360\datahandler\couchdb\AttachmentConnectorTest.java"/>
-        <filter val="\rest\resource-server\src\main\java\org\eclipse\sw360\rest\resourceserver\attachment\AttachmentController.java"/>
-        <filter val="\rest\resource-server\src\test\java\org\eclipse\sw360\rest\resourceserver\attachment\Sw360AttachmentServiceTest.java"/>
-        <filter val="\rest\resource-server\src\test\java\org\eclipse\sw360\rest\resourceserver\integration\AttachmentTest.java"/>
-        <filter val="AttachmentCleanupPortlet.java"/>
-        <filter val="AttachmentContentDownloader.java"/>
-        <filter val="AttachmentContentDownloaderTest.java"/>
-        <filter val="AttachmentContentProvider.java"/>
-        <filter val="AttachmentContentRepository.java"/>
-        <filter val="AttachmentContentWrapper.java"/>
-        <filter val="AttachmentContentWrapperTest.java"/>
-        <filter val="AttachmentDatabaseHandler.java"/>
-        <filter val="AttachmentDatabaseHandlerTest.java"/>
-        <filter val="AttachmentInfo.java"/>
-        <filter val="AttachmentOwnerRepository.java"/>
-        <filter val="AttachmentRepository.java"/>
-        <filter val="AttachmentResourceProcessor.java"/>
-        <filter val="AttachmentServlet.java"/>
-        <filter val="AttachmentSpecTest.java"/>
-        <filter val="AttachmentStreamConnector.java"/>
-        <filter val="AttachmentStreamConnectorTest.java"/>
-        <filter val="AttachmentUploadResult.java"/>
-        <filter val="AttachmentUploadResultTest.java"/>
-        <filter val="AttachmentUsageRepository.java"/>
-        <filter val="ComponentAttachmentCSVRecordBuilder.java"/>
-        <filter val="ComponentAttachmentCSVRecordBuilderTest.java"/>
-        <filter val="DisplayDownloadAttachmentBundle.java"/>
-        <filter val="DisplayDownloadAttachmentBundleTest.java"/>
-        <filter val="DisplayDownloadAttachmentFile.java"/>
-        <filter val="DisplayDownloadAttachmentFileTest.java"/>
-        <filter val="SW360AttachmentCheckStatus.java"/>
-        <filter val="Sw360AttachmentService.java"/>
-        <filter val="SW360AttachmentSetEmbeddedTest.java"/>
-        <filter val="SW360AttachmentTest.java"/>
-        <filter val="SW360AttachmentType.java"/>
-        <filter val="SW360AttachmentTypeTest.java"/>
-        <filter val="SW360AttachmentUtils.java"/>
-        <filter val="SW360AttachmentUtilsTest.java"/>
-        <filter val="SW360SparseAttachment.java"/>
-        <filter val="TestAttachmentClient.java"/>
-        <filter val="ThriftAttachmentServiceProvider.java"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:D798" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
